--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.17</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>005534</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>华夏新时代灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.48</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>010302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>达诚成长先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>86.96</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010302</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.40</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005534</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.51</v>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2445,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1970</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005534</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -905,302 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.96</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0569</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010302</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +817,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1265,36 +847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.84</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0884</t>
+          <t>0.0361</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1303,36 +885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0782</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1341,32 +923,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>011647</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>博时港股通红利精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0580</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1379,36 +961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1417,32 +999,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010302</t>
+          <t>011648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合C</t>
+          <t>博时港股通红利精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>87.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1455,150 +1037,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>501308</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1909,36 +1377,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>75.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>0.0884</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1947,36 +1415,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1985,32 +1453,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011647</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合A</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.11</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0580</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2023,36 +1491,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2061,32 +1529,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011648</t>
+          <t>010302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时港股通红利精选混合C</t>
+          <t>达诚成长先锋混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.11</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2099,36 +1567,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,7 +1745,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2193,36 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>83.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.1970</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2231,36 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>005534</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华夏新时代灵活配置混合（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.1247</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2269,36 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2307,36 +1889,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501308</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0569</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2350,128 +2198,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.51</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1074,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2192,7 +2531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01888-建滔积层板.xlsx
+++ b/数据整理/stocks/港股/01888-建滔积层板.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513530</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0360</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501307</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>信澳中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>23.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -899,21 +916,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +939,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2057,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +2870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
